--- a/hiqu/HR/Performance Evaluation/October 2024/Dev/Arslan Khalid.xlsx
+++ b/hiqu/HR/Performance Evaluation/October 2024/Dev/Arslan Khalid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\September 2024\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\October 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DFADB7-229A-4DEA-BF34-8953811EE53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C47ED56-F976-4146-B966-D81CE0CBD28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
   <si>
     <t>Employee Name</t>
   </si>
@@ -385,15 +385,22 @@
   </si>
   <si>
     <t>Review</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Apply discount based on Payment terms settings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -508,7 +515,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +561,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +716,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -854,9 +867,6 @@
     <xf numFmtId="43" fontId="14" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,9 +879,6 @@
     <xf numFmtId="4" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,6 +896,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="4" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -977,9 +1026,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3004,7 +3050,7 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F21"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,18 +3061,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="94"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
@@ -3034,11 +3080,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -3046,11 +3092,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -3058,11 +3104,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -3070,11 +3116,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -3082,11 +3128,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -3094,12 +3140,12 @@
       <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="92">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.47123287671232877</v>
-      </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
+        <v>0.50136986301369868</v>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
@@ -3107,11 +3153,11 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3390,13 +3436,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
@@ -3413,12 +3459,12 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
@@ -3438,13 +3484,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
@@ -3535,13 +3581,13 @@
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
@@ -3619,13 +3665,13 @@
       <c r="F22" s="35"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="98"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="36" t="s">
@@ -4067,10 +4113,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7711944-9C3B-4B01-99AE-D20CEF7A29FD}">
-  <dimension ref="B2:Y35"/>
+  <dimension ref="B2:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4087,7 +4133,7 @@
     <col min="11" max="11" width="1.7109375" style="51" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" style="51" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" style="51" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="51" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="86" customWidth="1"/>
     <col min="15" max="15" width="1.85546875" style="51" customWidth="1"/>
     <col min="16" max="18" width="9.140625" style="51"/>
     <col min="19" max="19" width="2.28515625" style="51" customWidth="1"/>
@@ -4097,71 +4143,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="94" t="str">
+      <c r="B3" s="106" t="str">
         <f>Employee!C6</f>
         <v>Arslan Khalid</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="52" t="s">
@@ -4170,41 +4216,41 @@
       <c r="C6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
       <c r="H6" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="96" t="s">
+      <c r="L6" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="P6" s="96" t="s">
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="P6" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
       <c r="T6" s="56" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="51"/>
-      <c r="V6" s="90" t="s">
+      <c r="V6" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="92"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="104"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
@@ -4224,16 +4270,16 @@
       <c r="H7" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
       <c r="L7" s="54" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="54" t="s">
-        <v>22</v>
+      <c r="N7" s="82" t="s">
+        <v>115</v>
       </c>
       <c r="P7" s="54" t="s">
         <v>19</v>
@@ -4242,7 +4288,7 @@
         <v>15</v>
       </c>
       <c r="R7" s="54" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="T7" s="60" t="s">
         <v>97</v>
@@ -4275,7 +4321,7 @@
       <c r="J8" s="63"/>
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
-      <c r="N8" s="64"/>
+      <c r="N8" s="83"/>
       <c r="P8" s="63"/>
       <c r="Q8" s="63"/>
       <c r="R8" s="64"/>
@@ -4306,9 +4352,9 @@
       <c r="M9" s="63">
         <v>33</v>
       </c>
-      <c r="N9" s="66">
-        <f>IF(L9=0,0,M9/L9)</f>
-        <v>1.03125</v>
+      <c r="N9" s="84">
+        <f>L9-M9</f>
+        <v>-1</v>
       </c>
       <c r="P9" s="63">
         <v>0</v>
@@ -4316,11 +4362,8 @@
       <c r="Q9" s="63">
         <v>13</v>
       </c>
-      <c r="R9" s="66">
-        <f>IF(P9=0,0,Q9/P9)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="67"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="66"/>
       <c r="T9" s="65">
         <f>D9+E9+F9+G9+I9+J9+M9+Q9</f>
         <v>49</v>
@@ -4355,19 +4398,22 @@
       <c r="L10" s="63">
         <v>30</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="89">
         <v>6</v>
       </c>
-      <c r="N10" s="66">
-        <f>IF(L10=0,0,M10/L10)</f>
-        <v>0.2</v>
+      <c r="N10" s="88">
+        <f>L10-M10</f>
+        <v>24</v>
       </c>
       <c r="P10" s="63"/>
       <c r="Q10" s="63"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="67"/>
+      <c r="R10" s="90">
+        <f t="shared" ref="R10:R15" si="0">P10-Q10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="66"/>
       <c r="T10" s="65">
-        <f t="shared" ref="T10:T29" si="0">D10+E10+F10+G10+I10+J10+M10+Q10</f>
+        <f t="shared" ref="T10:T29" si="1">D10+E10+F10+G10+I10+J10+M10+Q10</f>
         <v>6</v>
       </c>
       <c r="U10" s="51"/>
@@ -4391,19 +4437,22 @@
       <c r="L11" s="63">
         <v>4</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="67">
         <v>6</v>
       </c>
-      <c r="N11" s="71">
-        <f>IF(L11=0,0,M11/L11)</f>
-        <v>1.5</v>
+      <c r="N11" s="84">
+        <f>L11-M11</f>
+        <v>-2</v>
       </c>
       <c r="P11" s="63"/>
       <c r="Q11" s="63"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="67"/>
+      <c r="R11" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="66"/>
       <c r="T11" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="U11" s="51"/>
@@ -4427,16 +4476,19 @@
       <c r="L12" s="63">
         <v>0</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="67">
         <v>2</v>
       </c>
-      <c r="N12" s="66"/>
+      <c r="N12" s="84"/>
       <c r="P12" s="63"/>
       <c r="Q12" s="63"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="67"/>
+      <c r="R12" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="66"/>
       <c r="T12" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U12" s="51"/>
@@ -4457,17 +4509,20 @@
       <c r="H13" s="26"/>
       <c r="I13" s="63"/>
       <c r="J13" s="63"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="68">
+      <c r="L13" s="68"/>
+      <c r="M13" s="67">
         <v>2</v>
       </c>
-      <c r="N13" s="66"/>
+      <c r="N13" s="84"/>
       <c r="P13" s="63"/>
       <c r="Q13" s="63"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="67"/>
+      <c r="R13" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="66"/>
       <c r="T13" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U13" s="51"/>
@@ -4491,19 +4546,22 @@
       <c r="L14" s="63">
         <v>12</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M14" s="67">
         <v>4</v>
       </c>
-      <c r="N14" s="66">
-        <f>IF(L14=0,0,M14/L14)</f>
-        <v>0.33333333333333331</v>
+      <c r="N14" s="84">
+        <f>L14-M14</f>
+        <v>8</v>
       </c>
       <c r="P14" s="63"/>
       <c r="Q14" s="63"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="67"/>
+      <c r="R14" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="66"/>
       <c r="T14" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="U14" s="51"/>
@@ -4527,19 +4585,22 @@
       <c r="L15" s="63">
         <v>4</v>
       </c>
-      <c r="M15" s="70">
+      <c r="M15" s="69">
         <v>22</v>
       </c>
-      <c r="N15" s="71">
-        <f>IF(L15=0,0,M15/L15)</f>
-        <v>5.5</v>
+      <c r="N15" s="85">
+        <f>L15-M15</f>
+        <v>-18</v>
       </c>
       <c r="P15" s="63"/>
       <c r="Q15" s="63"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="67"/>
+      <c r="R15" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="66"/>
       <c r="T15" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="U15" s="51"/>
@@ -4561,8 +4622,8 @@
       <c r="I16" s="63"/>
       <c r="J16" s="63"/>
       <c r="L16" s="63"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="66">
+      <c r="M16" s="70"/>
+      <c r="N16" s="84">
         <f>IF(L16=0,0,M16/L16)</f>
         <v>0</v>
       </c>
@@ -4570,11 +4631,8 @@
       <c r="Q16" s="63">
         <v>13</v>
       </c>
-      <c r="R16" s="66">
-        <f>IF(P16=0,0,Q16/P16)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="67"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="66"/>
       <c r="T16" s="65">
         <f>D16+E16+F16+G16+H16+I16+J16+M16+Q16</f>
         <v>13</v>
@@ -4601,16 +4659,16 @@
       <c r="I17" s="63"/>
       <c r="J17" s="63"/>
       <c r="L17" s="63"/>
-      <c r="M17" s="72">
+      <c r="M17" s="70">
         <v>5</v>
       </c>
-      <c r="N17" s="66"/>
+      <c r="N17" s="84"/>
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="67"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="66"/>
       <c r="T17" s="65">
-        <f t="shared" ref="T17:T23" si="1">D17+E17+F17+G17+H17+I17+J17+M17+Q17</f>
+        <f t="shared" ref="T17:T23" si="2">D17+E17+F17+G17+H17+I17+J17+M17+Q17</f>
         <v>5</v>
       </c>
       <c r="U17" s="51"/>
@@ -4632,16 +4690,16 @@
       <c r="I18" s="63"/>
       <c r="J18" s="63"/>
       <c r="L18" s="63"/>
-      <c r="M18" s="72">
+      <c r="M18" s="70">
         <v>4</v>
       </c>
-      <c r="N18" s="66"/>
+      <c r="N18" s="84"/>
       <c r="P18" s="63"/>
       <c r="Q18" s="63"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="67"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="66"/>
       <c r="T18" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U18" s="51"/>
@@ -4667,18 +4725,18 @@
         <v>13</v>
       </c>
       <c r="L19" s="63"/>
-      <c r="M19" s="72">
+      <c r="M19" s="70">
         <v>9</v>
       </c>
-      <c r="N19" s="66"/>
+      <c r="N19" s="84"/>
       <c r="P19" s="63"/>
       <c r="Q19" s="63">
         <v>4</v>
       </c>
-      <c r="R19" s="66"/>
-      <c r="S19" s="67"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="66"/>
       <c r="T19" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="U19" s="51"/>
@@ -4704,10 +4762,10 @@
         <v>6</v>
       </c>
       <c r="L20" s="63"/>
-      <c r="M20" s="73">
+      <c r="M20" s="71">
         <v>25</v>
       </c>
-      <c r="N20" s="66">
+      <c r="N20" s="84">
         <f>IF(L20=0,0,M20/L20)</f>
         <v>0</v>
       </c>
@@ -4715,10 +4773,10 @@
       <c r="Q20" s="63">
         <v>2</v>
       </c>
-      <c r="R20" s="66"/>
-      <c r="S20" s="67"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="66"/>
       <c r="T20" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="U20" s="51"/>
@@ -4740,16 +4798,16 @@
       <c r="I21" s="63"/>
       <c r="J21" s="63"/>
       <c r="L21" s="63"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="66"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="84"/>
       <c r="P21" s="63"/>
       <c r="Q21" s="63">
         <v>3</v>
       </c>
-      <c r="R21" s="66"/>
-      <c r="S21" s="67"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="66"/>
       <c r="T21" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U21" s="51"/>
@@ -4772,21 +4830,24 @@
         <v>1</v>
       </c>
       <c r="J22" s="63"/>
-      <c r="L22" s="109">
+      <c r="L22" s="63">
         <v>56</v>
       </c>
-      <c r="M22" s="73">
+      <c r="M22" s="71">
         <v>14</v>
       </c>
-      <c r="N22" s="66"/>
+      <c r="N22" s="85">
+        <f>L22-M22</f>
+        <v>42</v>
+      </c>
       <c r="P22" s="63"/>
       <c r="Q22" s="63">
         <v>9</v>
       </c>
-      <c r="R22" s="66"/>
-      <c r="S22" s="67"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="66"/>
       <c r="T22" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="U22" s="51"/>
@@ -4808,8 +4869,8 @@
       <c r="I23" s="63"/>
       <c r="J23" s="63"/>
       <c r="L23" s="63"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="66">
+      <c r="M23" s="71"/>
+      <c r="N23" s="84">
         <f>IF(L23=0,0,M23/L23)</f>
         <v>0</v>
       </c>
@@ -4817,10 +4878,10 @@
       <c r="Q23" s="63">
         <v>2</v>
       </c>
-      <c r="R23" s="66"/>
-      <c r="S23" s="67"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="66"/>
       <c r="T23" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U23" s="51"/>
@@ -4842,12 +4903,12 @@
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
       <c r="L24" s="63"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="66"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="84"/>
       <c r="P24" s="63"/>
       <c r="Q24" s="63"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="67"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="66"/>
       <c r="T24" s="65"/>
       <c r="U24" s="51"/>
       <c r="V24" s="63"/>
@@ -4868,16 +4929,16 @@
       <c r="I25" s="63"/>
       <c r="J25" s="63"/>
       <c r="L25" s="63"/>
-      <c r="M25" s="68">
+      <c r="M25" s="67">
         <v>6</v>
       </c>
-      <c r="N25" s="66"/>
+      <c r="N25" s="84"/>
       <c r="P25" s="63"/>
       <c r="Q25" s="63"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="67"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="66"/>
       <c r="T25" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="U25" s="51"/>
@@ -4901,14 +4962,14 @@
       <c r="I26" s="63"/>
       <c r="J26" s="63"/>
       <c r="L26" s="63"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="66"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="84"/>
       <c r="P26" s="63"/>
       <c r="Q26" s="63"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="67"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="66"/>
       <c r="T26" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="U26" s="51"/>
@@ -4930,8 +4991,8 @@
       <c r="I27" s="63"/>
       <c r="J27" s="63"/>
       <c r="L27" s="63"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="66"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="84"/>
       <c r="P27" s="63">
         <v>0</v>
       </c>
@@ -4939,13 +5000,10 @@
         <f>79+17</f>
         <v>96</v>
       </c>
-      <c r="R27" s="66">
-        <f>IF(P27=0,0,Q27/P27)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="67"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="66"/>
       <c r="T27" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="U27" s="51"/>
@@ -4967,14 +5025,14 @@
       <c r="I28" s="63"/>
       <c r="J28" s="63"/>
       <c r="L28" s="63"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="66"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="84"/>
       <c r="P28" s="63"/>
       <c r="Q28" s="63"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="67"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="66"/>
       <c r="T28" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U28" s="51"/>
@@ -4998,19 +5056,16 @@
       <c r="I29" s="63"/>
       <c r="J29" s="63"/>
       <c r="L29" s="63"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="66"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="84"/>
       <c r="P29" s="63"/>
       <c r="Q29" s="63">
         <v>2</v>
       </c>
-      <c r="R29" s="66">
-        <f>IF(P29=0,0,Q29/P29)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="67"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="66"/>
       <c r="T29" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="U29" s="51"/>
@@ -5030,12 +5085,12 @@
       <c r="I30" s="63"/>
       <c r="J30" s="63"/>
       <c r="L30" s="63"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="66"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="84"/>
       <c r="P30" s="63"/>
       <c r="Q30" s="63"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="67"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="66"/>
       <c r="T30" s="65"/>
       <c r="U30" s="51"/>
       <c r="V30" s="63"/>
@@ -5054,12 +5109,12 @@
       <c r="I31" s="63"/>
       <c r="J31" s="63"/>
       <c r="L31" s="63"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="66"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="84"/>
       <c r="P31" s="63"/>
       <c r="Q31" s="63"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="67"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="66"/>
       <c r="T31" s="65"/>
       <c r="U31" s="51"/>
       <c r="V31" s="63"/>
@@ -5079,11 +5134,11 @@
       <c r="J32" s="63"/>
       <c r="L32" s="63"/>
       <c r="M32" s="63"/>
-      <c r="N32" s="66"/>
+      <c r="N32" s="84"/>
       <c r="O32" s="63"/>
       <c r="P32" s="63"/>
       <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
+      <c r="R32" s="90"/>
       <c r="S32" s="63"/>
       <c r="T32" s="65"/>
       <c r="U32" s="63"/>
@@ -5093,7 +5148,7 @@
       <c r="Y32" s="64"/>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="T33" s="74"/>
+      <c r="T33" s="72"/>
       <c r="U33" s="51"/>
       <c r="V33" s="51"/>
       <c r="W33" s="51"/>
@@ -5101,84 +5156,87 @@
       <c r="Y33" s="51"/>
     </row>
     <row r="34" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76">
+      <c r="C34" s="73"/>
+      <c r="D34" s="74">
         <f>SUM(D8:D27)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="76">
+      <c r="E34" s="74">
         <f>SUM(E8:E27)</f>
         <v>3</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="74">
         <f>SUM(F8:F27)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="74">
         <f>SUM(G8:G27)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76">
+      <c r="H34" s="74"/>
+      <c r="I34" s="74">
         <f>SUM(I8:I27)</f>
         <v>6</v>
       </c>
-      <c r="J34" s="76">
+      <c r="J34" s="74">
         <f>SUM(J8:J27)</f>
         <v>22</v>
       </c>
-      <c r="L34" s="76">
+      <c r="L34" s="74">
         <f>SUM(L8:L27)</f>
         <v>138</v>
       </c>
-      <c r="M34" s="76">
+      <c r="M34" s="74">
         <f>SUM(M8:M27)</f>
         <v>138</v>
       </c>
-      <c r="N34" s="77">
-        <f t="shared" ref="N34" si="2">IF(L34=0,0,(M34-L34)/L34)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76">
+      <c r="N34" s="87">
+        <f t="shared" ref="N34" si="3">IF(L34=0,0,(M34-L34)/L34)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74">
         <f>SUM(P8:P27)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="76">
+      <c r="Q34" s="74">
         <f>SUM(Q8:Q27)</f>
         <v>142</v>
       </c>
-      <c r="R34" s="77">
-        <f t="shared" ref="R34" si="3">IF(P34=0,0,(Q34-P34)/P34)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="76"/>
-      <c r="T34" s="78">
+      <c r="R34" s="75">
+        <f t="shared" ref="R34" si="4">IF(P34=0,0,(Q34-P34)/P34)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="74"/>
+      <c r="T34" s="76">
         <f>SUM(T8:T32)</f>
         <v>327</v>
       </c>
-      <c r="U34" s="76"/>
-      <c r="V34" s="76">
+      <c r="U34" s="74"/>
+      <c r="V34" s="74">
         <f>SUM(V8:V27)</f>
         <v>0</v>
       </c>
-      <c r="W34" s="76">
+      <c r="W34" s="74">
         <f>SUM(W8:W27)</f>
         <v>0</v>
       </c>
-      <c r="X34" s="76">
+      <c r="X34" s="74">
         <f>SUM(X8:X27)</f>
         <v>0</v>
       </c>
-      <c r="Y34" s="76">
+      <c r="Y34" s="74">
         <f>SUM(Y8:Y27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="T39" s="51"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="V6:Y6"/>
@@ -5207,8 +5265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5233,68 +5291,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="102" t="str">
+      <c r="B3" s="114" t="str">
         <f>Employee!C6</f>
         <v>Arslan Khalid</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -5303,38 +5361,38 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="107" t="s">
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="O6" s="106" t="s">
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="O6" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
       <c r="S6" s="30" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="5"/>
-      <c r="U6" s="99" t="s">
+      <c r="U6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="101"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="113"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -5351,8 +5409,8 @@
       <c r="G7" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
       <c r="K7" s="10" t="s">
         <v>12</v>
       </c>
@@ -5480,11 +5538,11 @@
         <v>30</v>
       </c>
       <c r="L10" s="28">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M10" s="13">
         <f>IF(K10=0,0,L10/K10)</f>
-        <v>0.13333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -5492,7 +5550,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="32">
         <f t="shared" ref="S10:S19" si="0">D10+E10+F10+G10+H10+I10+L10+P10</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="2"/>
@@ -5647,11 +5705,11 @@
         <v>4</v>
       </c>
       <c r="L15" s="28">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M15" s="42">
         <f>IF(K15=0,0,L15/K15)</f>
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -5659,7 +5717,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="32">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="2"/>
@@ -5854,11 +5912,11 @@
       </c>
       <c r="L22" s="15">
         <f>SUM(L8:L19)</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M22" s="16">
         <f t="shared" ref="M22" si="2">IF(K22=0,0,(L22-K22)/K22)</f>
-        <v>-0.23170731707317074</v>
+        <v>-0.25609756097560976</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="15">
@@ -5876,7 +5934,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="34">
         <f>SUM(S8:S20)</f>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T22" s="15"/>
       <c r="U22" s="15">
@@ -5920,10 +5978,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1E213-AB99-479F-8C2D-AF848A7C2997}">
-  <dimension ref="B2:Y29"/>
+  <dimension ref="B2:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5939,7 +5997,7 @@
     <col min="11" max="11" width="1.7109375" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" style="47" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="80" customWidth="1"/>
     <col min="15" max="15" width="1.85546875" style="5" customWidth="1"/>
     <col min="16" max="18" width="9.140625" style="5"/>
     <col min="19" max="19" width="2.28515625" style="5" customWidth="1"/>
@@ -5948,71 +6006,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
     </row>
     <row r="3" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="102" t="str">
+      <c r="B3" s="114" t="str">
         <f>Employee!C6</f>
         <v>Arslan Khalid</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -6021,41 +6079,41 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="107" t="s">
+      <c r="J6" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="106" t="s">
+      <c r="L6" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="P6" s="106" t="s">
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="P6" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
       <c r="T6" s="30" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="5"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="101"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="113"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -6075,16 +6133,16 @@
       <c r="H7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
       <c r="L7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>22</v>
+      <c r="N7" s="77" t="s">
+        <v>115</v>
       </c>
       <c r="P7" s="10" t="s">
         <v>19</v>
@@ -6093,7 +6151,7 @@
         <v>15</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="T7" s="31" t="s">
         <v>97</v>
@@ -6126,7 +6184,7 @@
       <c r="J8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="45"/>
-      <c r="N8" s="7"/>
+      <c r="N8" s="78"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="7"/>
@@ -6153,16 +6211,16 @@
         <v>70</v>
       </c>
       <c r="M9" s="45"/>
-      <c r="N9" s="13">
-        <f t="shared" ref="N9:N15" si="0">IF(L9=0,0,M9/L9)</f>
+      <c r="N9" s="79">
+        <f>IF(L9&gt;0,IF(M9&gt;0,L9-M9,0),0)</f>
         <v>0</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2">
         <v>13</v>
       </c>
-      <c r="R9" s="13">
-        <f>IF(P9=0,0,Q9/P9)</f>
+      <c r="R9" s="79">
+        <f t="shared" ref="R9:R25" si="0">IF(P9&gt;0,IF(Q9&gt;0,P9-Q9,0),0)</f>
         <v>0</v>
       </c>
       <c r="S9" s="6"/>
@@ -6199,19 +6257,22 @@
       <c r="M10" s="45">
         <v>12</v>
       </c>
-      <c r="N10" s="13">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
+      <c r="N10" s="79">
+        <f t="shared" ref="N10:N27" si="1">IF(L10&gt;0,IF(M10&gt;0,L10-M10,0),0)</f>
+        <v>20</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2">
-        <v>13</v>
-      </c>
-      <c r="R10" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="R10" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S10" s="6"/>
       <c r="T10" s="32">
-        <f t="shared" ref="T10:T19" si="1">D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
-        <v>26</v>
+        <f t="shared" ref="T10:T20" si="2">D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
+        <v>23</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="2"/>
@@ -6235,18 +6296,23 @@
         <v>16</v>
       </c>
       <c r="M11" s="45">
-        <v>5</v>
-      </c>
-      <c r="N11" s="13">
+        <v>2</v>
+      </c>
+      <c r="N11" s="79">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2">
+        <v>3</v>
+      </c>
+      <c r="R11" s="79">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="13"/>
+        <v>0</v>
+      </c>
       <c r="S11" s="6"/>
       <c r="T11" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="U11" s="5"/>
@@ -6273,18 +6339,21 @@
       <c r="M12" s="45">
         <v>2</v>
       </c>
-      <c r="N12" s="13">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+      <c r="N12" s="79">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2">
         <v>1</v>
       </c>
-      <c r="R12" s="13"/>
+      <c r="R12" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U12" s="5"/>
@@ -6306,20 +6375,21 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="45">
-        <v>4</v>
-      </c>
-      <c r="N13" s="13">
-        <f t="shared" si="0"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="79">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="13"/>
+      <c r="R13" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="32">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="2"/>
@@ -6347,18 +6417,21 @@
       <c r="M14" s="45">
         <v>9</v>
       </c>
-      <c r="N14" s="13">
-        <f t="shared" si="0"/>
+      <c r="N14" s="79">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2">
         <v>4</v>
       </c>
-      <c r="R14" s="13"/>
+      <c r="R14" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S14" s="6"/>
       <c r="T14" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="U14" s="5"/>
@@ -6377,29 +6450,26 @@
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>6</v>
-      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="46">
-        <v>25</v>
-      </c>
-      <c r="N15" s="13">
-        <f t="shared" si="0"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="79">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2">
         <v>2</v>
       </c>
-      <c r="R15" s="13"/>
+      <c r="R15" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S15" s="6"/>
       <c r="T15" s="32">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="2"/>
@@ -6425,15 +6495,19 @@
       <c r="M16" s="46">
         <v>4</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="79">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="13"/>
+      <c r="R16" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U16" s="5"/>
@@ -6444,8 +6518,8 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>108</v>
+      <c r="C17" t="s">
+        <v>90</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -6456,16 +6530,20 @@
       <c r="J17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="46"/>
-      <c r="N17" s="13"/>
+      <c r="N17" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2">
-        <v>3</v>
-      </c>
-      <c r="R17" s="13"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S17" s="6"/>
       <c r="T17" s="32">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="2"/>
@@ -6476,7 +6554,7 @@
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -6484,28 +6562,31 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="L18" s="2">
-        <v>56</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6</v>
+      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="46">
-        <v>14</v>
-      </c>
-      <c r="N18" s="13">
-        <f>IF(L18=0,0,M18/L18)</f>
-        <v>0.25</v>
+        <v>25</v>
+      </c>
+      <c r="N18" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2">
-        <v>9</v>
-      </c>
-      <c r="R18" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="R18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S18" s="6"/>
       <c r="T18" s="32">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="2"/>
@@ -6516,30 +6597,39 @@
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
       <c r="J19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="13">
-        <f>IF(L19=0,0,M19/L19)</f>
-        <v>0</v>
+      <c r="L19" s="2">
+        <v>56</v>
+      </c>
+      <c r="M19" s="46">
+        <v>14</v>
+      </c>
+      <c r="N19" s="79">
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2">
-        <v>2</v>
-      </c>
-      <c r="R19" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="R19" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S19" s="6"/>
       <c r="T19" s="32">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="2"/>
@@ -6549,7 +6639,9 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -6559,17 +6651,22 @@
       <c r="J20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="46"/>
-      <c r="N20" s="42">
-        <f>IF(L20=0,0,M20/L20)</f>
+      <c r="N20" s="79">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="13"/>
+      <c r="Q20" s="2">
+        <v>2</v>
+      </c>
+      <c r="R20" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S20" s="6"/>
       <c r="T20" s="32">
-        <f t="shared" ref="T20:T24" si="2">D20+E20+F20+G20+I20+J20+M20+Q20</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="2"/>
@@ -6578,10 +6675,10 @@
       <c r="Y20" s="7"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="27"/>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -6591,12 +6688,23 @@
       <c r="J21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="46"/>
-      <c r="N21" s="13"/>
+      <c r="N21" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="13"/>
+      <c r="Q21" s="2">
+        <v>4</v>
+      </c>
+      <c r="R21" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S21" s="6"/>
-      <c r="T21" s="32"/>
+      <c r="T21" s="32">
+        <f t="shared" ref="T21:T25" si="3">D21+E21+F21+G21+I21+J21+M21+Q21</f>
+        <v>4</v>
+      </c>
       <c r="U21" s="5"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -6604,10 +6712,10 @@
       <c r="Y21" s="7"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B22" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="27"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -6617,17 +6725,18 @@
       <c r="J22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="13"/>
+      <c r="N22" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2">
-        <v>17</v>
-      </c>
-      <c r="R22" s="13"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S22" s="6"/>
-      <c r="T22" s="32">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
+      <c r="T22" s="32"/>
       <c r="U22" s="5"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -6635,10 +6744,10 @@
       <c r="Y22" s="7"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="27"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -6648,14 +6757,22 @@
       <c r="J23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="46"/>
-      <c r="N23" s="13"/>
+      <c r="N23" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="13"/>
+      <c r="Q23" s="2">
+        <v>17</v>
+      </c>
+      <c r="R23" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S23" s="6"/>
       <c r="T23" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="U23" s="5"/>
       <c r="V23" s="2"/>
@@ -6664,14 +6781,12 @@
       <c r="Y23" s="7"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="B24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="27"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="26">
-        <v>14</v>
-      </c>
+      <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
@@ -6679,19 +6794,20 @@
       <c r="J24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="46"/>
-      <c r="N24" s="13"/>
+      <c r="N24" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2">
-        <v>2</v>
-      </c>
-      <c r="R24" s="13">
-        <f>IF(P24=0,0,Q24/P24)</f>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="79">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S24" s="6"/>
       <c r="T24" s="32">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="2"/>
@@ -6701,9 +6817,13 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="E25" s="26">
+        <v>14</v>
+      </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -6711,12 +6831,23 @@
       <c r="J25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="13"/>
+      <c r="N25" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="13"/>
+      <c r="Q25" s="2">
+        <v>2</v>
+      </c>
+      <c r="R25" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S25" s="6"/>
-      <c r="T25" s="32"/>
+      <c r="T25" s="32">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="U25" s="5"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -6726,115 +6857,145 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="2"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="6"/>
       <c r="T26" s="32"/>
-      <c r="U26" s="2"/>
+      <c r="U26" s="5"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="7"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="T27" s="33"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-    </row>
-    <row r="28" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="7"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T28" s="33"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+    </row>
+    <row r="29" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15">
-        <f t="shared" ref="D28:J28" si="3">SUM(D8:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
-        <f t="shared" si="3"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:J29" si="4">SUM(D8:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="F28" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15">
-        <f t="shared" si="3"/>
+      <c r="F29" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J28" s="15">
-        <f t="shared" si="3"/>
+      <c r="J29" s="15">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="L28" s="15">
-        <f>SUM(L8:L24)</f>
+      <c r="L29" s="15">
+        <f>SUM(L8:L25)</f>
         <v>208</v>
       </c>
-      <c r="M28" s="48">
-        <f>SUM(M8:M24)</f>
-        <v>75</v>
-      </c>
-      <c r="N28" s="16">
-        <f t="shared" ref="N28" si="4">IF(L28=0,0,(M28-L28)/L28)</f>
-        <v>-0.63942307692307687</v>
-      </c>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15">
-        <f>SUM(P8:P24)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="15">
-        <f>SUM(Q8:Q24)</f>
-        <v>66</v>
-      </c>
-      <c r="R28" s="16">
-        <f t="shared" ref="R28" si="5">IF(P28=0,0,(Q28-P28)/P28)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="34">
-        <f>SUM(T8:T26)</f>
-        <v>181</v>
-      </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15">
-        <f>SUM(V8:V24)</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="15">
-        <f>SUM(W8:W24)</f>
-        <v>0</v>
-      </c>
-      <c r="X28" s="15">
-        <f>SUM(X8:X24)</f>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="15">
-        <f>SUM(Y8:Y24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="M29" s="48">
+        <f>SUM(M8:M25)</f>
+        <v>68</v>
+      </c>
+      <c r="N29" s="81">
+        <f t="shared" ref="N29" si="5">IF(L29=0,0,(M29-L29)/L29)</f>
+        <v>-0.67307692307692313</v>
+      </c>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15">
+        <f>SUM(P8:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15">
+        <f>SUM(Q8:Q25)</f>
+        <v>72</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" ref="R29" si="6">IF(P29=0,0,(Q29-P29)/P29)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="15"/>
+      <c r="T29" s="34">
+        <f>SUM(T8:T27)</f>
+        <v>180</v>
+      </c>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15">
+        <f>SUM(V8:V25)</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="15">
+        <f>SUM(W8:W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="15">
+        <f>SUM(X8:X25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="15">
+        <f>SUM(Y8:Y25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="V6:Y6"/>
@@ -6847,7 +7008,7 @@
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="P6:R6"/>
   </mergeCells>
-  <conditionalFormatting sqref="V9:V25">
+  <conditionalFormatting sqref="V9:V26">
     <cfRule type="expression" priority="1">
       <formula>V9/$AR9</formula>
     </cfRule>
